--- a/code_example/from_excel_to_r/lesson_7/salary.xlsx
+++ b/code_example/from_excel_to_r/lesson_7/salary.xlsx
@@ -8,16 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Google Диск\Курс 20 шагов от Excel до языка R\materials\lesson_7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4CCD458-0035-4B3A-A0AD-1BDEDE6ABBF1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F21DF70-7328-4A24-B1C5-8E01F38966F9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="4" xr2:uid="{37BE25D0-1F13-40FE-9217-23250293201B}"/>
   </bookViews>
   <sheets>
-    <sheet name="salary" sheetId="1" r:id="rId1"/>
-    <sheet name="bonus_jan" sheetId="4" r:id="rId2"/>
-    <sheet name="bonus_feb" sheetId="5" r:id="rId3"/>
-    <sheet name="departmen" sheetId="2" r:id="rId4"/>
-    <sheet name="staff" sheetId="3" r:id="rId5"/>
+    <sheet name="bonus_jan" sheetId="4" r:id="rId1"/>
+    <sheet name="bonus_feb" sheetId="5" r:id="rId2"/>
+    <sheet name="departmen" sheetId="2" r:id="rId3"/>
+    <sheet name="staff" sheetId="3" r:id="rId4"/>
+    <sheet name="payroll_jan" sheetId="6" r:id="rId5"/>
+    <sheet name="payroll_dec" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -35,10 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="44">
-  <si>
-    <t>month</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="44">
   <si>
     <t>position</t>
   </si>
@@ -167,6 +165,9 @@
   </si>
   <si>
     <t>date</t>
+  </si>
+  <si>
+    <t>sum</t>
   </si>
 </sst>
 </file>
@@ -519,191 +520,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EE4935E-5E6C-45D7-9459-8EFEF27B0CA0}">
-  <dimension ref="A1:B20"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.28515625" customWidth="1"/>
-    <col min="4" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1">
-        <v>43831</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1">
-        <v>43831</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1">
-        <v>43831</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1">
-        <v>43831</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1">
-        <v>43831</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1">
-        <v>43831</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" s="1">
-        <v>43831</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" s="1">
-        <v>43831</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10" s="1">
-        <v>43831</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11" s="1">
-        <v>43831</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12" s="1">
-        <v>43831</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13" s="1">
-        <v>43831</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="B14" s="1">
-        <v>43831</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="B15" s="1">
-        <v>43831</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>15</v>
-      </c>
-      <c r="B16" s="1">
-        <v>43831</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>16</v>
-      </c>
-      <c r="B17" s="1">
-        <v>43831</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>17</v>
-      </c>
-      <c r="B18" s="1">
-        <v>43831</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>18</v>
-      </c>
-      <c r="B19" s="1">
-        <v>43831</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>19</v>
-      </c>
-      <c r="B20" s="1">
-        <v>43831</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15B913D4-708C-4221-A63E-54AD687118A5}">
   <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E7"/>
+      <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -715,13 +536,13 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" t="s">
         <v>42</v>
       </c>
-      <c r="B1" t="s">
-        <v>43</v>
-      </c>
       <c r="C1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -974,7 +795,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0242CA0-BA2F-4F95-8B07-CEDF57757AD5}">
   <dimension ref="A1:E16"/>
   <sheetViews>
@@ -991,13 +812,13 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" t="s">
         <v>42</v>
       </c>
-      <c r="B1" t="s">
-        <v>43</v>
-      </c>
       <c r="C1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -1132,7 +953,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75D16DF8-0242-468C-9E7B-EBB4551D0B63}">
   <dimension ref="A1:B6"/>
   <sheetViews>
@@ -1144,10 +965,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" t="s">
         <v>37</v>
-      </c>
-      <c r="B1" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -1155,7 +976,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -1163,7 +984,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -1171,7 +992,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -1179,7 +1000,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -1187,7 +1008,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -1195,11 +1016,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{026D457B-61B4-45CC-B2A7-CC3D04217950}">
   <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L25" sqref="L25"/>
     </sheetView>
   </sheetViews>
@@ -1212,19 +1033,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" t="s">
         <v>37</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>38</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" t="s">
         <v>39</v>
-      </c>
-      <c r="D1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -1232,13 +1053,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>3000</v>
@@ -1249,13 +1070,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E3">
         <v>1800</v>
@@ -1266,13 +1087,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E4">
         <v>1000</v>
@@ -1283,13 +1104,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C5">
         <v>2</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E5">
         <v>2200</v>
@@ -1300,13 +1121,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C6">
         <v>2</v>
       </c>
       <c r="D6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E6">
         <v>1300</v>
@@ -1317,13 +1138,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C7">
         <v>2</v>
       </c>
       <c r="D7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E7">
         <v>1300</v>
@@ -1334,13 +1155,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C8">
         <v>2</v>
       </c>
       <c r="D8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E8">
         <v>1300</v>
@@ -1351,13 +1172,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C9">
         <v>3</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E9">
         <v>3000</v>
@@ -1368,13 +1189,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C10">
         <v>3</v>
       </c>
       <c r="D10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E10">
         <v>2000</v>
@@ -1385,13 +1206,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C11">
         <v>3</v>
       </c>
       <c r="D11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E11">
         <v>1000</v>
@@ -1402,13 +1223,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C12">
         <v>4</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E12">
         <v>1300</v>
@@ -1419,13 +1240,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C13">
         <v>4</v>
       </c>
       <c r="D13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E13">
         <v>700</v>
@@ -1436,13 +1257,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C14">
         <v>4</v>
       </c>
       <c r="D14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E14">
         <v>700</v>
@@ -1453,13 +1274,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C15">
         <v>4</v>
       </c>
       <c r="D15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E15">
         <v>700</v>
@@ -1470,13 +1291,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C16">
         <v>5</v>
       </c>
       <c r="D16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E16">
         <v>2500</v>
@@ -1487,13 +1308,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C17">
         <v>5</v>
       </c>
       <c r="D17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E17">
         <v>1500</v>
@@ -1504,13 +1325,13 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C18">
         <v>5</v>
       </c>
       <c r="D18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E18">
         <v>1250</v>
@@ -1521,13 +1342,13 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C19">
         <v>5</v>
       </c>
       <c r="D19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E19">
         <v>1000</v>
@@ -1538,17 +1359,382 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C20">
         <v>5</v>
       </c>
       <c r="D20" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E20">
         <v>1000</v>
       </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{698E6049-9EC5-4BB5-ADE8-9692C8FEA684}">
+  <dimension ref="A1:F16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:H3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="10.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>11</v>
+      </c>
+      <c r="B2" s="1">
+        <v>43856</v>
+      </c>
+      <c r="C2">
+        <v>13</v>
+      </c>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3" s="1">
+        <v>43843</v>
+      </c>
+      <c r="C3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>6</v>
+      </c>
+      <c r="B4" s="1">
+        <v>43847</v>
+      </c>
+      <c r="C4">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>18</v>
+      </c>
+      <c r="B5" s="1">
+        <v>43854</v>
+      </c>
+      <c r="C5">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1">
+        <v>43833</v>
+      </c>
+      <c r="C6">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>18</v>
+      </c>
+      <c r="B7" s="1">
+        <v>43859</v>
+      </c>
+      <c r="C7">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8" s="1">
+        <v>43837</v>
+      </c>
+      <c r="C8">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>11</v>
+      </c>
+      <c r="B9" s="1">
+        <v>43834</v>
+      </c>
+      <c r="C9">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>4</v>
+      </c>
+      <c r="B10" s="1">
+        <v>43847</v>
+      </c>
+      <c r="C10">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>17</v>
+      </c>
+      <c r="B11" s="1">
+        <v>43861</v>
+      </c>
+      <c r="C11">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12" s="1">
+        <v>43849</v>
+      </c>
+      <c r="C12">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>9</v>
+      </c>
+      <c r="B13" s="1">
+        <v>43851</v>
+      </c>
+      <c r="C13">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>16</v>
+      </c>
+      <c r="B14" s="1">
+        <v>43857</v>
+      </c>
+      <c r="C14">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>15</v>
+      </c>
+      <c r="B15" s="1">
+        <v>43847</v>
+      </c>
+      <c r="C15">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>6</v>
+      </c>
+      <c r="B16" s="1">
+        <v>43855</v>
+      </c>
+      <c r="C16">
+        <v>44</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2B91F2F-9CFF-4EFE-B33E-F3C5AF01DEB6}">
+  <dimension ref="A1:F16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.85546875" customWidth="1"/>
+    <col min="6" max="6" width="10.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>9</v>
+      </c>
+      <c r="B2" s="1">
+        <v>43872</v>
+      </c>
+      <c r="C2">
+        <v>36</v>
+      </c>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1">
+        <v>43866</v>
+      </c>
+      <c r="C3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="B4" s="1">
+        <v>43883</v>
+      </c>
+      <c r="C4">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>7</v>
+      </c>
+      <c r="B5" s="1">
+        <v>43863</v>
+      </c>
+      <c r="C5">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6" s="1">
+        <v>43884</v>
+      </c>
+      <c r="C6">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>9</v>
+      </c>
+      <c r="B7" s="1">
+        <v>43889</v>
+      </c>
+      <c r="C7">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>15</v>
+      </c>
+      <c r="B8" s="1">
+        <v>43890</v>
+      </c>
+      <c r="C8">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>5</v>
+      </c>
+      <c r="B9" s="1">
+        <v>43875</v>
+      </c>
+      <c r="C9">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="B10" s="1">
+        <v>43862</v>
+      </c>
+      <c r="C10">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>17</v>
+      </c>
+      <c r="B11" s="1">
+        <v>43890</v>
+      </c>
+      <c r="C11">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>6</v>
+      </c>
+      <c r="B12" s="1">
+        <v>43888</v>
+      </c>
+      <c r="C12">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B13" s="1"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B14" s="1"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B15" s="1"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B16" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/code_example/from_excel_to_r/lesson_7/salary.xlsx
+++ b/code_example/from_excel_to_r/lesson_7/salary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Google Диск\Курс 20 шагов от Excel до языка R\materials\lesson_7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F21DF70-7328-4A24-B1C5-8E01F38966F9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5F1523B-C8F5-4B67-BD9B-C0D0A8331896}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="4" xr2:uid="{37BE25D0-1F13-40FE-9217-23250293201B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="5" xr2:uid="{37BE25D0-1F13-40FE-9217-23250293201B}"/>
   </bookViews>
   <sheets>
     <sheet name="bonus_jan" sheetId="4" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="departmen" sheetId="2" r:id="rId3"/>
     <sheet name="staff" sheetId="3" r:id="rId4"/>
     <sheet name="payroll_jan" sheetId="6" r:id="rId5"/>
-    <sheet name="payroll_dec" sheetId="7" r:id="rId6"/>
+    <sheet name="payroll_feb" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -1380,7 +1380,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{698E6049-9EC5-4BB5-ADE8-9692C8FEA684}">
   <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E2" sqref="E2:H3"/>
     </sheetView>
   </sheetViews>
@@ -1579,7 +1579,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2B91F2F-9CFF-4EFE-B33E-F3C5AF01DEB6}">
   <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E2" sqref="E2:F2"/>
     </sheetView>
   </sheetViews>
